--- a/config_12.08/rank_server.xlsx
+++ b/config_12.08/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="224">
   <si>
     <t>id|</t>
   </si>
@@ -946,6 +946,58 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leijiyingjin_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_discount|分数折扣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_12_lhsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>38</t>
     </r>
@@ -963,47 +1015,31 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>10万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>1万福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>9千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>leijiyingjin_rank</t>
+    <t>2千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>source_discount|分数折扣</t>
+    <t>1千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2千福利券</t>
+    <t>5百福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1097,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,6 +1140,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1133,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1243,6 +1285,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1519,10 +1574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2100,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>186</v>
@@ -2265,6 +2321,41 @@
       </c>
       <c r="L20" s="28">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1607385600</v>
+      </c>
+      <c r="F21" s="41">
+        <v>1607961599</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="41">
+        <v>21</v>
+      </c>
+      <c r="K21" s="41">
+        <v>20</v>
+      </c>
+      <c r="L21" s="41">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2276,10 +2367,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2398,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>41</v>
@@ -2725,7 +2817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2739,7 +2831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2750,7 +2842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2761,7 +2853,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2775,7 +2867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2789,7 +2881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2803,7 +2895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2816,6 +2908,22 @@
       <c r="D39" s="2">
         <v>21</v>
       </c>
+    </row>
+    <row r="40" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="42">
+        <v>39</v>
+      </c>
+      <c r="B40" s="42">
+        <v>21</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="42">
+        <v>22</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2826,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3209,7 +3317,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -3263,6 +3371,23 @@
         <v>202</v>
       </c>
       <c r="E25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
+        <v>25</v>
+      </c>
+      <c r="B26" s="42">
+        <v>22</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="42">
+        <v>9</v>
+      </c>
+      <c r="E26" s="42">
         <v>2</v>
       </c>
     </row>
@@ -3372,11 +3497,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A20"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3850,6 +3975,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
+        <v>20</v>
+      </c>
+      <c r="B21" s="42">
+        <v>1</v>
+      </c>
+      <c r="C21" s="42">
+        <v>20</v>
+      </c>
+      <c r="D21" s="42">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42">
+        <v>20</v>
+      </c>
+      <c r="F21" s="42">
+        <v>180</v>
+      </c>
+      <c r="G21" s="42">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3858,11 +4006,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4123,6 +4271,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
+        <v>18</v>
+      </c>
+      <c r="B19" s="42">
+        <v>22</v>
+      </c>
+      <c r="C19" s="42">
+        <v>1</v>
+      </c>
+      <c r="D19" s="42">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4132,11 +4294,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4415,6 +4577,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
+        <v>22</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1607961599</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4426,8 +4599,8 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7048,226 +7221,198 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="31">
+    <row r="118" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="42">
         <v>117</v>
       </c>
-      <c r="B118" s="31">
+      <c r="B118" s="42">
         <v>18</v>
       </c>
-      <c r="C118" s="31">
-        <v>1</v>
-      </c>
-      <c r="D118" s="31">
-        <v>1</v>
-      </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31">
-        <v>97</v>
-      </c>
-      <c r="H118" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="31">
+      <c r="C118" s="42">
+        <v>1</v>
+      </c>
+      <c r="D118" s="42">
+        <v>1</v>
+      </c>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42">
+        <v>102</v>
+      </c>
+      <c r="H118" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="42"/>
+    </row>
+    <row r="119" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="42">
         <v>118</v>
       </c>
-      <c r="B119" s="31">
+      <c r="B119" s="42">
         <v>18</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C119" s="42">
         <v>2</v>
       </c>
-      <c r="D119" s="31">
+      <c r="D119" s="42">
         <v>2</v>
       </c>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31">
-        <v>98</v>
-      </c>
-      <c r="H119" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="31">
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42">
+        <v>103</v>
+      </c>
+      <c r="H119" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="42"/>
+    </row>
+    <row r="120" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="42">
         <v>119</v>
       </c>
-      <c r="B120" s="31">
+      <c r="B120" s="42">
         <v>18</v>
       </c>
-      <c r="C120" s="31">
+      <c r="C120" s="42">
         <v>3</v>
       </c>
-      <c r="D120" s="31">
+      <c r="D120" s="42">
         <v>3</v>
       </c>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31">
-        <v>99</v>
-      </c>
-      <c r="H120" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="31">
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42">
+        <v>104</v>
+      </c>
+      <c r="H120" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="42"/>
+    </row>
+    <row r="121" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="42">
         <v>120</v>
       </c>
-      <c r="B121" s="31">
+      <c r="B121" s="42">
         <v>18</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="42">
         <v>4</v>
       </c>
-      <c r="D121" s="31">
+      <c r="D121" s="42">
+        <v>6</v>
+      </c>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42">
+        <v>105</v>
+      </c>
+      <c r="H121" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="42"/>
+    </row>
+    <row r="122" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="42">
+        <v>121</v>
+      </c>
+      <c r="B122" s="42">
+        <v>18</v>
+      </c>
+      <c r="C122" s="42">
+        <v>7</v>
+      </c>
+      <c r="D122" s="42">
         <v>10</v>
       </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31">
-        <v>100</v>
-      </c>
-      <c r="H121" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="31">
-        <v>121</v>
-      </c>
-      <c r="B122" s="31">
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42">
+        <v>106</v>
+      </c>
+      <c r="H122" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="42"/>
+    </row>
+    <row r="123" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="42">
+        <v>122</v>
+      </c>
+      <c r="B123" s="42">
         <v>18</v>
       </c>
-      <c r="C122" s="31">
+      <c r="C123" s="42">
         <v>11</v>
       </c>
-      <c r="D122" s="31">
+      <c r="D123" s="42">
+        <v>15</v>
+      </c>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42">
+        <v>107</v>
+      </c>
+      <c r="H123" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="42"/>
+    </row>
+    <row r="124" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="42">
+        <v>123</v>
+      </c>
+      <c r="B124" s="42">
+        <v>18</v>
+      </c>
+      <c r="C124" s="42">
+        <v>16</v>
+      </c>
+      <c r="D124" s="42">
         <v>20</v>
       </c>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31">
-        <v>101</v>
-      </c>
-      <c r="H122" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="31">
-        <v>122</v>
-      </c>
-      <c r="B123" s="31">
-        <v>19</v>
-      </c>
-      <c r="C123" s="31">
-        <v>1</v>
-      </c>
-      <c r="D123" s="31">
-        <v>1</v>
-      </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31">
-        <v>97</v>
-      </c>
-      <c r="H123" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="31">
-        <v>123</v>
-      </c>
-      <c r="B124" s="31">
-        <v>19</v>
-      </c>
-      <c r="C124" s="31">
-        <v>2</v>
-      </c>
-      <c r="D124" s="31">
-        <v>2</v>
-      </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31">
-        <v>98</v>
-      </c>
-      <c r="H124" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="31">
-        <v>124</v>
-      </c>
-      <c r="B125" s="31">
-        <v>19</v>
-      </c>
-      <c r="C125" s="31">
-        <v>3</v>
-      </c>
-      <c r="D125" s="31">
-        <v>3</v>
-      </c>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31">
-        <v>99</v>
-      </c>
-      <c r="H125" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="31">
-        <v>125</v>
-      </c>
-      <c r="B126" s="31">
-        <v>19</v>
-      </c>
-      <c r="C126" s="31">
-        <v>4</v>
-      </c>
-      <c r="D126" s="31">
-        <v>10</v>
-      </c>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31">
-        <v>100</v>
-      </c>
-      <c r="H126" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="31">
-        <v>126</v>
-      </c>
-      <c r="B127" s="31">
-        <v>19</v>
-      </c>
-      <c r="C127" s="31">
-        <v>11</v>
-      </c>
-      <c r="D127" s="31">
-        <v>20</v>
-      </c>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31">
-        <v>101</v>
-      </c>
-      <c r="H127" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I127" s="31"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42">
+        <v>108</v>
+      </c>
+      <c r="H124" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="42"/>
+    </row>
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7278,11 +7423,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9228,7 +9373,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98" s="35" t="s">
         <v>158</v>
@@ -9248,7 +9393,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>158</v>
@@ -9268,7 +9413,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" s="35" t="s">
         <v>158</v>
@@ -9288,7 +9433,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D101" s="35" t="s">
         <v>158</v>
@@ -9308,7 +9453,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>158</v>
@@ -9328,7 +9473,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>158</v>
@@ -9348,7 +9493,7 @@
         <v>99</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>158</v>
@@ -9368,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D105" s="33" t="s">
         <v>158</v>
@@ -9388,7 +9533,7 @@
         <v>101</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D106" s="33" t="s">
         <v>158</v>
@@ -9397,6 +9542,146 @@
         <v>3000</v>
       </c>
       <c r="F106" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="42">
+        <v>106</v>
+      </c>
+      <c r="B107" s="42">
+        <v>102</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="42">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="42">
+        <v>107</v>
+      </c>
+      <c r="B108" s="42">
+        <v>103</v>
+      </c>
+      <c r="C108" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="42">
+        <v>30000</v>
+      </c>
+      <c r="F108" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="42">
+        <v>108</v>
+      </c>
+      <c r="B109" s="42">
+        <v>104</v>
+      </c>
+      <c r="C109" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="42">
+        <v>10000</v>
+      </c>
+      <c r="F109" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="42">
+        <v>109</v>
+      </c>
+      <c r="B110" s="42">
+        <v>105</v>
+      </c>
+      <c r="C110" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" s="42">
+        <v>3000</v>
+      </c>
+      <c r="F110" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="42">
+        <v>110</v>
+      </c>
+      <c r="B111" s="42">
+        <v>106</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="42">
+        <v>2000</v>
+      </c>
+      <c r="F111" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="42">
+        <v>111</v>
+      </c>
+      <c r="B112" s="42">
+        <v>107</v>
+      </c>
+      <c r="C112" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="42">
+        <v>112</v>
+      </c>
+      <c r="B113" s="42">
+        <v>108</v>
+      </c>
+      <c r="C113" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E113" s="42">
+        <v>500</v>
+      </c>
+      <c r="F113" s="42">
         <v>1</v>
       </c>
     </row>

--- a/config_12.08/rank_server.xlsx
+++ b/config_12.08/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="225">
   <si>
     <t>id|</t>
   </si>
@@ -1040,6 +1040,10 @@
   </si>
   <si>
     <t>5百福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1576,9 +1580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2367,11 +2371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2838,8 +2842,8 @@
       <c r="B34" s="2">
         <v>16</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>46</v>
+      <c r="C34" s="22" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2849,8 +2853,8 @@
       <c r="B35" s="2">
         <v>16</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>197</v>
+      <c r="C35" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2858,13 +2862,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>17</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="2">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2872,13 +2873,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D37" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2886,13 +2887,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D38" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2900,30 +2901,44 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>20</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42">
-        <v>39</v>
-      </c>
-      <c r="B40" s="42">
+    <row r="41" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="42">
         <v>21</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C41" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D41" s="42">
         <v>22</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7425,7 +7440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
     </sheetView>

--- a/config_12.08/rank_server.xlsx
+++ b/config_12.08/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="237">
   <si>
     <t>id|</t>
   </si>
@@ -1044,6 +1044,54 @@
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean_explore_week_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个高级核弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1578,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2331,7 +2379,7 @@
       <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="b">
+      <c r="B21" s="14" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="41" t="s">
@@ -2360,6 +2408,38 @@
       </c>
       <c r="L21" s="41">
         <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1604246400</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2555555555</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="14">
+        <v>21</v>
+      </c>
+      <c r="L22" s="14">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2373,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -2952,7 +3032,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3512,11 +3592,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4013,6 +4093,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>180</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4021,11 +4124,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4300,6 +4403,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4309,11 +4426,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4603,6 +4720,17 @@
         <v>1607961599</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4611,11 +4739,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7398,36 +7526,112 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="6"/>
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>19</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2">
+        <v>109</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>228</v>
+      </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="6"/>
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>19</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2">
+        <v>110</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="6"/>
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>19</v>
+      </c>
+      <c r="C127" s="2">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2">
+        <v>111</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>19</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4</v>
+      </c>
+      <c r="D128" s="2">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2">
+        <v>112</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2">
+        <v>20</v>
+      </c>
+      <c r="G129" s="2">
+        <v>113</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7438,11 +7642,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7450,7 +7654,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
@@ -9700,6 +9904,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>109</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>110</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>111</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>112</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="2">
+        <v>5</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>113</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="2">
+        <v>2</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
